--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D847DB-4DE9-9F41-AD2C-F489584BE33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F7EAD1-FC4D-9E46-AA97-F6B0927D243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,84 +33,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Billionaires</t>
-  </si>
-  <si>
-    <t>BYUI_ClassCatalog</t>
-  </si>
-  <si>
-    <t>CountryCode</t>
-  </si>
-  <si>
-    <t>FIFAWorldCup</t>
-  </si>
-  <si>
-    <t>Financial Data</t>
-  </si>
-  <si>
-    <t>ForbesBillionaries</t>
-  </si>
-  <si>
-    <t>ForbesUniversities</t>
-  </si>
-  <si>
-    <t>IrvineSpectrumCenter</t>
-  </si>
-  <si>
-    <t>BYUI_JobBoard</t>
-  </si>
-  <si>
-    <t>MutualAppFeedback</t>
-  </si>
-  <si>
-    <t>NewsCBS</t>
-  </si>
-  <si>
-    <t>PoliticosChilenos</t>
-  </si>
-  <si>
-    <t>PoliticosEspanoles</t>
-  </si>
-  <si>
-    <t>SINCAMMAGob</t>
-  </si>
-  <si>
-    <t>BYUI_SurplusStore</t>
-  </si>
-  <si>
-    <t>USHouseRepresentatives</t>
-  </si>
-  <si>
-    <t>BoatTrader</t>
-  </si>
-  <si>
-    <t>SigEp_Chapters</t>
-  </si>
-  <si>
-    <t>Script</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Analysis (EDA)</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>To Do</t>
   </si>
   <si>
     <t>Expander</t>
+  </si>
+  <si>
+    <t>Code Used 🐍</t>
+  </si>
+  <si>
+    <t>See Website 👨🏻‍💻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Extracted 🕸 </t>
+  </si>
+  <si>
+    <t>Analysis 🧐</t>
+  </si>
+  <si>
+    <t>Select a project</t>
+  </si>
+  <si>
+    <t>BYU-Idaho Class Catalog</t>
+  </si>
+  <si>
+    <t>Stocks - ADVFN</t>
+  </si>
+  <si>
+    <t>Billionaires - Forbes</t>
+  </si>
+  <si>
+    <t>Universities - Forbes</t>
+  </si>
+  <si>
+    <t>Irvine Spectrum Center - Stores</t>
+  </si>
+  <si>
+    <t>BYU-Idaho Student Employment</t>
+  </si>
+  <si>
+    <t>Mutual App Feedback</t>
+  </si>
+  <si>
+    <t>News - CBS</t>
+  </si>
+  <si>
+    <t>Politicos Chilenos</t>
+  </si>
+  <si>
+    <t>Políticos Españoles</t>
+  </si>
+  <si>
+    <t>SINCA MMA Gob</t>
+  </si>
+  <si>
+    <t>Surplus Store - BYUI</t>
+  </si>
+  <si>
+    <t>Representatives - USA</t>
+  </si>
+  <si>
+    <t>Boat Trader</t>
+  </si>
+  <si>
+    <t>Sigma Phi Epsilon</t>
+  </si>
+  <si>
+    <t>Phone Country Code</t>
+  </si>
+  <si>
+    <t>FIFA Soccer 2022</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>Add description logo</t>
+  </si>
+  <si>
+    <t>Short fetch request time</t>
+  </si>
+  <si>
+    <t>Find a side entry with login</t>
+  </si>
+  <si>
+    <t>TABLE not displaying</t>
   </si>
 </sst>
 </file>
@@ -154,8 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -167,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,152 +509,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A7954-E540-A140-8CF2-968EC8C916F2}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A14">
     <sortCondition ref="A3:A14"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F7EAD1-FC4D-9E46-AA97-F6B0927D243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792BFB7-1C74-7B49-922A-740B43934D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792BFB7-1C74-7B49-922A-740B43934D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A1E453-599C-CB44-82D4-8E5B0BBA79C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,8 +562,8 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A1E453-599C-CB44-82D4-8E5B0BBA79C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF3696-4412-344F-9AB9-1D29055C65CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>TABLE not displaying</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,17 +187,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,60 +516,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A7954-E540-A140-8CF2-968EC8C916F2}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
     <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -574,7 +581,7 @@
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -582,22 +589,22 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -605,19 +612,19 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -625,22 +632,22 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -671,19 +678,19 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -691,19 +698,19 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -711,19 +718,19 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -754,10 +761,10 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -766,10 +773,10 @@
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -783,13 +790,13 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -803,13 +810,13 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -826,7 +833,7 @@
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -863,16 +870,16 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -883,19 +890,19 @@
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -903,19 +910,19 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -923,20 +930,40 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>27</v>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF3696-4412-344F-9AB9-1D29055C65CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C80CB4-4990-4840-A300-501B4D2CAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,11 +205,93 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -516,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A7954-E540-A140-8CF2-968EC8C916F2}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,137 +651,144 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -713,10 +805,11 @@
       <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
@@ -736,61 +829,58 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>31</v>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -798,11 +888,14 @@
       </c>
       <c r="F13" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -822,7 +915,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -830,19 +923,19 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
@@ -853,39 +946,39 @@
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
+      <c r="E16" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>27</v>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -893,82 +986,94 @@
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A14">
-    <sortCondition ref="A3:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A15">
+    <sortCondition ref="A4:A15"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
@@ -976,6 +1081,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A4:F1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$G4="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C80CB4-4990-4840-A300-501B4D2CAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C4562-047D-4F4E-A0F5-737D6FEB7551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,8 +1000,8 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -1009,14 +1009,14 @@
       <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C4562-047D-4F4E-A0F5-737D6FEB7551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97488457-A390-3846-B383-AD35D31D9B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Find a side entry with login</t>
-  </si>
-  <si>
-    <t>TABLE not displaying</t>
   </si>
   <si>
     <t>Priority</t>
@@ -604,7 +601,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +649,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -691,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -737,7 +734,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -753,15 +750,13 @@
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -890,7 +885,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1016,7 +1011,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,7 +1034,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97488457-A390-3846-B383-AD35D31D9B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396B83A-3979-BF4A-B066-5699248EF7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -192,6 +192,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -201,83 +203,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -601,7 +531,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,25 +544,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -645,10 +575,10 @@
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2">
@@ -869,8 +799,8 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
@@ -884,9 +814,7 @@
       <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1004,15 +932,13 @@
       <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>27</v>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1059,7 +985,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1077,7 +1003,7 @@
     <mergeCell ref="G1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G4="Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396B83A-3979-BF4A-B066-5699248EF7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091D1AE4-FC25-9847-AB22-E47432B7179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>Add fix table option</t>
+  </si>
+  <si>
+    <t>Apps Shopify</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -528,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A7954-E540-A140-8CF2-968EC8C916F2}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,9 +577,10 @@
     <col min="3" max="5" width="9.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="4"/>
     <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -559,8 +596,9 @@
       <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
@@ -576,8 +614,9 @@
         <v>3</v>
       </c>
       <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -598,7 +637,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -621,7 +660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -644,7 +683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -667,7 +706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -686,9 +725,11 @@
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -707,11 +748,14 @@
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -732,7 +776,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -752,7 +796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -772,7 +816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -791,11 +835,14 @@
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -814,9 +861,12 @@
       <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -835,8 +885,9 @@
       <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -856,7 +907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -876,7 +927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -895,11 +946,14 @@
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -919,7 +973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -940,7 +994,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -963,7 +1017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -982,9 +1036,31 @@
       <c r="F21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1000,11 +1076,26 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A4:F7 A9:F11 G14 A13:F14 A16:F16 A18:F1048576">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G4="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:F8 A17:F17">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H8="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:F12">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>$H13="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:F15">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$G17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091D1AE4-FC25-9847-AB22-E47432B7179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E5FAE6-D4BA-494E-9BEA-4A73034B233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,11 +1044,11 @@
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>25</v>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E5FAE6-D4BA-494E-9BEA-4A73034B233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C227BE-309E-9844-BA6A-23366D7C0172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -567,7 +567,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,8 +1024,8 @@
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>27</v>
@@ -1037,7 +1037,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1058,6 +1058,9 @@
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C227BE-309E-9844-BA6A-23366D7C0172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE75C3D-9F2A-B648-86D2-FE5FA8744C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Apps Shopify</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,13 +989,15 @@
       <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE75C3D-9F2A-B648-86D2-FE5FA8744C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF7A1E-933E-6E41-B32F-4C2040F62936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Apps Shopify</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>Image</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -567,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A7954-E540-A140-8CF2-968EC8C916F2}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,32 +581,35 @@
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="4"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -616,10 +622,11 @@
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -638,9 +645,10 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="7"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -659,11 +667,11 @@
       <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -682,11 +690,11 @@
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -705,11 +713,11 @@
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -728,11 +736,11 @@
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -751,14 +759,15 @@
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -777,9 +786,9 @@
       <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -799,7 +808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -819,7 +828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -838,14 +847,15 @@
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -864,12 +874,12 @@
       <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -888,9 +898,9 @@
       <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -910,7 +920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -929,8 +939,9 @@
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -949,25 +960,26 @@
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>27</v>
@@ -975,8 +987,14 @@
       <c r="F18" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -996,10 +1014,13 @@
         <v>27</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1019,10 +1040,13 @@
         <v>27</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1042,10 +1066,13 @@
         <v>27</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1065,45 +1092,50 @@
         <v>27</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
+      <c r="G23" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A15">
     <sortCondition ref="A4:A15"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:F7 A9:F11 G14 A13:F14 A16:F16 A18:F1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$G4="Done"</formula>
+  <conditionalFormatting sqref="A4:G7 A9:G11 H14 A13:G14 A16:G16 A18:G1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H4="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:F8 A17:F17">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$H8="Done"</formula>
+  <conditionalFormatting sqref="A8:G8 A17:G17">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:F12">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$H13="Done"</formula>
+  <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$I13="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:F15">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$G17="Done"</formula>
+  <conditionalFormatting sqref="A15:G15">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$H17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF7A1E-933E-6E41-B32F-4C2040F62936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03077A90-AEC0-E74B-AB71-B7E0E8DE086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -219,7 +219,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -940,33 +1000,34 @@
         <v>28</v>
       </c>
       <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1118,24 +1179,9 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G7 A9:G11 H14 A13:G14 A16:G16 A18:G1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$H4="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:G8 A17:G17">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I8="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:G12">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$I13="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:G15">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$H17="Done"</formula>
+  <conditionalFormatting sqref="A4:G22">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$H4="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03077A90-AEC0-E74B-AB71-B7E0E8DE086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246A67D-3DBD-5B4C-BA2A-DEC1E6762E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Good Enough</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,8 +645,7 @@
     <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.83203125" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="4"/>
-    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -887,6 +889,9 @@
       <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -919,8 +924,8 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
@@ -934,8 +939,11 @@
       <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -958,6 +966,9 @@
       <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -979,6 +990,9 @@
       <c r="F15" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -991,16 +1005,20 @@
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246A67D-3DBD-5B4C-BA2A-DEC1E6762E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0C35C6-73CB-2146-A61E-61EED769C756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -636,7 +636,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,7 +969,9 @@
       <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -992,6 +994,9 @@
       </c>
       <c r="G15" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0C35C6-73CB-2146-A61E-61EED769C756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E33E89-CAD5-8B4C-A858-7FE19F076D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -222,97 +222,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -636,7 +546,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,8 +696,8 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
@@ -799,7 +709,7 @@
         <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1203,7 +1113,7 @@
     <mergeCell ref="H1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G22">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$H4="DONE"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E33E89-CAD5-8B4C-A858-7FE19F076D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C056985-59DB-C04C-A246-078D210235B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -122,9 +122,6 @@
     <t>❌</t>
   </si>
   <si>
-    <t>Add description logo</t>
-  </si>
-  <si>
     <t>Short fetch request time</t>
   </si>
   <si>
@@ -146,7 +143,7 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Good Enough</t>
+    <t>GOOD ENOUGH</t>
   </si>
 </sst>
 </file>
@@ -222,7 +219,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -546,7 +563,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,7 +589,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>1</v>
@@ -600,7 +617,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -640,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -650,8 +667,8 @@
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>27</v>
@@ -663,7 +680,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -686,7 +703,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -709,7 +726,7 @@
         <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -733,10 +750,10 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -824,10 +841,10 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -853,7 +870,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -880,7 +897,7 @@
         <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -906,7 +923,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -932,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -958,7 +975,7 @@
         <v>27</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -985,7 +1002,7 @@
         <v>27</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1011,7 +1028,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1037,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1063,12 +1080,12 @@
         <v>27</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>27</v>
@@ -1089,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1113,8 +1130,13 @@
     <mergeCell ref="H1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G22">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$H4="DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:G26">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$H4="GOOD ENOUGH"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/@Calling-Code/Projects progress report.xlsx
+++ b/@Calling-Code/Projects progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanhueza/EXOXY/Personal Projects/Programming/Public/Web_Scrape/@Calling-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C056985-59DB-C04C-A246-078D210235B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAF5ACD-02D3-5C4E-ABAC-0C1BEE74A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC18D311-90A5-E34F-B68C-9F5FF09D2736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>GOOD ENOUGH</t>
+  </si>
+  <si>
+    <t>Gotta remove it</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A7954-E540-A140-8CF2-968EC8C916F2}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,9 +576,10 @@
     <col min="3" max="5" width="9.83203125" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="4"/>
     <col min="8" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -595,8 +599,9 @@
         <v>1</v>
       </c>
       <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
@@ -614,8 +619,9 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -637,7 +643,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -660,7 +666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -679,11 +685,14 @@
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -702,11 +711,14 @@
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -725,11 +737,14 @@
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -756,7 +771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -775,9 +790,12 @@
       <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -796,8 +814,11 @@
       <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -820,7 +841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -846,8 +867,11 @@
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -874,7 +898,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -900,7 +924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -926,7 +950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1127,14 +1151,14 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="H1:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G22">
+  <conditionalFormatting sqref="J12 A4:G22">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$H4="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:G26">
+  <conditionalFormatting sqref="J12 A4:G26">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$H4="GOOD ENOUGH"</formula>
     </cfRule>
